--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_1_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_1_sine_0.5_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.76000000000012</v>
+        <v>22.46000000000007</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,30 +580,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.200241107702872e-15</v>
+        <v>3.416070845000481e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>36.49965435558592</v>
+        <v>42.02580948201606</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[27.751203007912714, 45.248105703259135]</t>
+          <t>[33.69431903704325, 50.357299926988865]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>7.771561172376096e-15</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.554312234475219e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.628973968528041</v>
+        <v>1.50318447288881</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.3522370781217337, 1.9057108589343486]</t>
+          <t>[1.2893423303021168, 1.7170266154755032]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>59.15877716764175</v>
+        <v>59.73285847679992</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[53.55485598283297, 64.76269835245054]</t>
+          <t>[54.40308250487962, 65.06263444872022]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.85925925925935</v>
+        <v>17.08668668668674</v>
       </c>
       <c r="X2" t="n">
-        <v>15.8568168168169</v>
+        <v>16.32228228228233</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.86170170170179</v>
+        <v>17.85109109109115</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.76000000000059</v>
+        <v>25.63000000000057</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,44 +661,44 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.200241107702872e-15</v>
+        <v>3.416070845000481e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>37.19318865050407</v>
+        <v>38.60139191185458</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[27.94720609383183, 46.43917120717631]</t>
+          <t>[28.151808528410683, 49.05097529529847]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>5.440092820663267e-14</v>
+        <v>3.450351115930061e-12</v>
       </c>
       <c r="N3" t="n">
-        <v>5.440092820663267e-14</v>
+        <v>3.450351115930061e-12</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.1257894956392311</v>
+        <v>-0.5031579825569237</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.38994743648161645, 0.13836844520315417]</t>
+          <t>[-0.779894872963232, -0.22642109215061534]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.3493996634966594</v>
+        <v>0.0004055895124976949</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3493996634966594</v>
+        <v>0.0004055895124976949</v>
       </c>
       <c r="S3" t="n">
-        <v>55.57048373393448</v>
+        <v>55.67030290948367</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.94714597228397, 61.19382149558499]</t>
+          <t>[50.0388590661417, 61.301746752825636]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5157157157157286</v>
+        <v>2.052452452452499</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.5672872872873003</v>
+        <v>0.9236036036036244</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.598718718718757</v>
+        <v>3.181301301301374</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_1_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_1_sine_0.5_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.46000000000007</v>
+        <v>22.54000000000008</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>3.416070845000481e-16</v>
+        <v>2.990499729630051e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>42.02580948201606</v>
+        <v>44.84560660421891</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[33.69431903704325, 50.357299926988865]</t>
+          <t>[36.414734975798716, 53.2764782326391]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.50318447288881</v>
+        <v>1.440289725069194</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.2893423303021168, 1.7170266154755032]</t>
+          <t>[1.2264475824825025, 1.6541318676558854]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>59.73285847679992</v>
+        <v>56.32783626631648</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[54.40308250487962, 65.06263444872022]</t>
+          <t>[50.96063351347998, 61.69503901915298]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.08668668668674</v>
+        <v>17.37317317317324</v>
       </c>
       <c r="X2" t="n">
-        <v>16.32228228228233</v>
+        <v>16.60604604604611</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.85109109109115</v>
+        <v>18.14030030030036</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.63000000000057</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,44 +661,44 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>3.416070845000481e-16</v>
+        <v>2.990499729630051e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>38.60139191185458</v>
+        <v>44.09638721670428</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[28.151808528410683, 49.05097529529847]</t>
+          <t>[33.927246540153135, 54.265527893255424]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3.450351115930061e-12</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="N3" t="n">
-        <v>3.450351115930061e-12</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.5031579825569237</v>
+        <v>0.3836579616996545</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.779894872963232, -0.22642109215061534]</t>
+          <t>[0.14465791998511524, 0.6226580034141938]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.0004055895124976949</v>
+        <v>0.001749377693250231</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0004055895124976949</v>
+        <v>0.001749377693250231</v>
       </c>
       <c r="S3" t="n">
-        <v>55.67030290948367</v>
+        <v>59.42971682613375</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[50.0388590661417, 61.301746752825636]</t>
+          <t>[53.84793125571143, 65.01150239655607]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.052452452452499</v>
+        <v>24.40302302302361</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9236036036036244</v>
+        <v>23.41441441441497</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.181301301301374</v>
+        <v>25.39163163163224</v>
       </c>
     </row>
   </sheetData>
